--- a/trunk/naibusekkei/programming schedule.xlsx
+++ b/trunk/naibusekkei/programming schedule.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245"/>
   </bookViews>
   <sheets>
-    <sheet name="処理" sheetId="1" r:id="rId1"/>
+    <sheet name="programming" sheetId="1" r:id="rId1"/>
     <sheet name="メッセージ" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="ログイン" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
